--- a/resultados/resultados_221209.xlsx
+++ b/resultados/resultados_221209.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufranca/Documents/Dropbox/other_projects/FIA-Ajepi/Mundial2022/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72E2A20-3B8C-4A43-BE54-73DE73879A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1114233C-9B56-9D46-AF83-A240AB99419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="500" windowWidth="26480" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="B309" sqref="B309:B324"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="G309" sqref="G309:G324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8188,11 +8188,17 @@
       </c>
       <c r="D308">
         <f>D291+E308</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E308">
         <f>3*F308+G308</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
@@ -8213,6 +8219,12 @@
         <f t="shared" ref="E309:E314" si="38">3*F309+G309</f>
         <v>0</v>
       </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
@@ -8232,6 +8244,12 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
@@ -8251,6 +8269,12 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
@@ -8270,6 +8294,12 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
@@ -8289,6 +8319,12 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
@@ -8308,6 +8344,12 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
@@ -8327,6 +8369,12 @@
         <f>3*F315+G315</f>
         <v>0</v>
       </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
@@ -8340,10 +8388,16 @@
       </c>
       <c r="D316">
         <f t="shared" si="37"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E316">
         <f t="shared" ref="E316:E324" si="39">3*F316+G316</f>
+        <v>3</v>
+      </c>
+      <c r="F316">
+        <v>1</v>
+      </c>
+      <c r="G316">
         <v>0</v>
       </c>
     </row>
@@ -8365,6 +8419,12 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
@@ -8384,6 +8444,12 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
@@ -8403,8 +8469,12 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F319" s="3"/>
-      <c r="G319" s="3"/>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
@@ -8424,8 +8494,12 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F320" s="3"/>
-      <c r="G320" s="3"/>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
@@ -8445,8 +8519,12 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F321" s="3"/>
-      <c r="G321" s="3"/>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
@@ -8466,8 +8544,12 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F322" s="3"/>
-      <c r="G322" s="3"/>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
@@ -8487,8 +8569,12 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F323" s="3"/>
-      <c r="G323" s="3"/>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
@@ -8508,8 +8594,12 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F324" s="3"/>
-      <c r="G324" s="3"/>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="3"/>
